--- a/Code/Results/Cases/Case_2_106/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_106/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.022033086775638</v>
+        <v>1.047128063602184</v>
       </c>
       <c r="D2">
-        <v>1.038570576856164</v>
+        <v>1.053276440205262</v>
       </c>
       <c r="E2">
-        <v>1.034070701792871</v>
+        <v>1.058950772824788</v>
       </c>
       <c r="F2">
-        <v>1.04500449139632</v>
+        <v>1.066364642304763</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053171663795623</v>
+        <v>1.045649976774784</v>
       </c>
       <c r="J2">
-        <v>1.043574186491485</v>
+        <v>1.052178781974173</v>
       </c>
       <c r="K2">
-        <v>1.04951749457075</v>
+        <v>1.056022855291684</v>
       </c>
       <c r="L2">
-        <v>1.045074938484449</v>
+        <v>1.06168160668493</v>
       </c>
       <c r="M2">
-        <v>1.055870523303903</v>
+        <v>1.069075388704568</v>
       </c>
       <c r="N2">
-        <v>1.018109610254172</v>
+        <v>1.021223028434477</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.026389418561334</v>
+        <v>1.048048835748804</v>
       </c>
       <c r="D3">
-        <v>1.041833678788014</v>
+        <v>1.053992202943841</v>
       </c>
       <c r="E3">
-        <v>1.037935991674049</v>
+        <v>1.059848817301546</v>
       </c>
       <c r="F3">
-        <v>1.048842224359607</v>
+        <v>1.067237896132549</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054515013015353</v>
+        <v>1.045887372272664</v>
       </c>
       <c r="J3">
-        <v>1.046185649457145</v>
+        <v>1.052748042992124</v>
       </c>
       <c r="K3">
-        <v>1.051957871751811</v>
+        <v>1.056551879775694</v>
       </c>
       <c r="L3">
-        <v>1.048105436318375</v>
+        <v>1.062393572418461</v>
       </c>
       <c r="M3">
-        <v>1.058886092563138</v>
+        <v>1.069764076728424</v>
       </c>
       <c r="N3">
-        <v>1.018997886957089</v>
+        <v>1.021414912316752</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.029153000665186</v>
+        <v>1.048645100884352</v>
       </c>
       <c r="D4">
-        <v>1.043907266778888</v>
+        <v>1.054455803149088</v>
       </c>
       <c r="E4">
-        <v>1.040397841613284</v>
+        <v>1.060431165663696</v>
       </c>
       <c r="F4">
-        <v>1.051283894180613</v>
+        <v>1.067803897793608</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055359283426117</v>
+        <v>1.046040088301862</v>
       </c>
       <c r="J4">
-        <v>1.047839266519284</v>
+        <v>1.053116207775297</v>
       </c>
       <c r="K4">
-        <v>1.053503147820072</v>
+        <v>1.056893973834551</v>
       </c>
       <c r="L4">
-        <v>1.050031973843561</v>
+        <v>1.062854876975676</v>
       </c>
       <c r="M4">
-        <v>1.060800392940271</v>
+        <v>1.070210007805282</v>
       </c>
       <c r="N4">
-        <v>1.019560131411598</v>
+        <v>1.021538946011491</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.030302024860278</v>
+        <v>1.048895880642617</v>
       </c>
       <c r="D5">
-        <v>1.044770211453515</v>
+        <v>1.05465080784866</v>
       </c>
       <c r="E5">
-        <v>1.041423717685252</v>
+        <v>1.060676283391242</v>
       </c>
       <c r="F5">
-        <v>1.052300731678883</v>
+        <v>1.068042070249368</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05570837337497</v>
+        <v>1.046104075314892</v>
       </c>
       <c r="J5">
-        <v>1.048526033628481</v>
+        <v>1.053270938862513</v>
       </c>
       <c r="K5">
-        <v>1.054144910128494</v>
+        <v>1.057037736386535</v>
       </c>
       <c r="L5">
-        <v>1.050833907435483</v>
+        <v>1.063048955322093</v>
       </c>
       <c r="M5">
-        <v>1.061596573804952</v>
+        <v>1.070397548650296</v>
       </c>
       <c r="N5">
-        <v>1.019793580176386</v>
+        <v>1.021591058705289</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.030494213802729</v>
+        <v>1.048937994077517</v>
       </c>
       <c r="D6">
-        <v>1.044914595776814</v>
+        <v>1.054683556237462</v>
       </c>
       <c r="E6">
-        <v>1.041595442803768</v>
+        <v>1.060717457191908</v>
       </c>
       <c r="F6">
-        <v>1.052470906851546</v>
+        <v>1.068082073621126</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055766648401151</v>
+        <v>1.046114806402094</v>
       </c>
       <c r="J6">
-        <v>1.048640858435885</v>
+        <v>1.053296916200591</v>
       </c>
       <c r="K6">
-        <v>1.05425220952678</v>
+        <v>1.05706187156582</v>
       </c>
       <c r="L6">
-        <v>1.050968094621557</v>
+        <v>1.063081550447485</v>
       </c>
       <c r="M6">
-        <v>1.061729759660623</v>
+        <v>1.070429041732953</v>
       </c>
       <c r="N6">
-        <v>1.019832608373035</v>
+        <v>1.021599806821456</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.02916840365026</v>
+        <v>1.048648451385412</v>
       </c>
       <c r="D7">
-        <v>1.043918831681993</v>
+        <v>1.054458408392165</v>
       </c>
       <c r="E7">
-        <v>1.040411584716929</v>
+        <v>1.060434439767993</v>
       </c>
       <c r="F7">
-        <v>1.051297518681039</v>
+        <v>1.067807079382129</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055363970759975</v>
+        <v>1.046040944144252</v>
       </c>
       <c r="J7">
-        <v>1.047848475875377</v>
+        <v>1.053118275479322</v>
       </c>
       <c r="K7">
-        <v>1.053511753721895</v>
+        <v>1.056895895009521</v>
       </c>
       <c r="L7">
-        <v>1.05004272036004</v>
+        <v>1.062857469688401</v>
       </c>
       <c r="M7">
-        <v>1.060811064967197</v>
+        <v>1.070212513456259</v>
       </c>
       <c r="N7">
-        <v>1.019563262129698</v>
+        <v>1.021539642466479</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.023517043818847</v>
+        <v>1.047439146075475</v>
       </c>
       <c r="D8">
-        <v>1.039681363306174</v>
+        <v>1.053518240711272</v>
       </c>
       <c r="E8">
-        <v>1.035385313475857</v>
+        <v>1.059254010631443</v>
       </c>
       <c r="F8">
-        <v>1.046310281149119</v>
+        <v>1.066659565260305</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053630908150742</v>
+        <v>1.045730390590567</v>
       </c>
       <c r="J8">
-        <v>1.044464384911777</v>
+        <v>1.052371204101516</v>
       </c>
       <c r="K8">
-        <v>1.050349369679372</v>
+        <v>1.056201686525585</v>
       </c>
       <c r="L8">
-        <v>1.046106386878963</v>
+        <v>1.061922090661009</v>
       </c>
       <c r="M8">
-        <v>1.056897465663067</v>
+        <v>1.069308070328678</v>
       </c>
       <c r="N8">
-        <v>1.018412451869361</v>
+        <v>1.02128790273958</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.013114447970842</v>
+        <v>1.045311801577685</v>
       </c>
       <c r="D9">
-        <v>1.031911637010439</v>
+        <v>1.051865086485061</v>
       </c>
       <c r="E9">
-        <v>1.02621308777857</v>
+        <v>1.057183616043261</v>
       </c>
       <c r="F9">
-        <v>1.037188479606397</v>
+        <v>1.064644830641512</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050379386682091</v>
+        <v>1.045176329768417</v>
       </c>
       <c r="J9">
-        <v>1.038212451688627</v>
+        <v>1.051053397628937</v>
       </c>
       <c r="K9">
-        <v>1.044507349910025</v>
+        <v>1.05497676428197</v>
       </c>
       <c r="L9">
-        <v>1.038894724716621</v>
+        <v>1.06027860412098</v>
       </c>
       <c r="M9">
-        <v>1.049705696886183</v>
+        <v>1.067716712020457</v>
       </c>
       <c r="N9">
-        <v>1.01628477857096</v>
+        <v>1.020843343608661</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.005849629495584</v>
+        <v>1.043896066068527</v>
       </c>
       <c r="D10">
-        <v>1.026509307957411</v>
+        <v>1.050765452523736</v>
       </c>
       <c r="E10">
-        <v>1.019864643933388</v>
+        <v>1.055809952666697</v>
       </c>
       <c r="F10">
-        <v>1.030860742273913</v>
+        <v>1.063306699174576</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048069289155661</v>
+        <v>1.044802402533229</v>
       </c>
       <c r="J10">
-        <v>1.033833067223985</v>
+        <v>1.050174000746207</v>
       </c>
       <c r="K10">
-        <v>1.040415874743665</v>
+        <v>1.054159112309153</v>
       </c>
       <c r="L10">
-        <v>1.033884265570944</v>
+        <v>1.059186234325634</v>
       </c>
       <c r="M10">
-        <v>1.044694289625403</v>
+        <v>1.066657489567466</v>
       </c>
       <c r="N10">
-        <v>1.014793548897441</v>
+        <v>1.020546349582252</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.002618171931452</v>
+        <v>1.043283642937219</v>
       </c>
       <c r="D11">
-        <v>1.0241127197393</v>
+        <v>1.050289902889894</v>
       </c>
       <c r="E11">
-        <v>1.017055109159974</v>
+        <v>1.055216726896504</v>
       </c>
       <c r="F11">
-        <v>1.028056968785439</v>
+        <v>1.062728485342939</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04703291803842</v>
+        <v>1.044639415406012</v>
       </c>
       <c r="J11">
-        <v>1.031882436059139</v>
+        <v>1.049793021459708</v>
       </c>
       <c r="K11">
-        <v>1.038593794824168</v>
+        <v>1.053804827418134</v>
       </c>
       <c r="L11">
-        <v>1.031662402335278</v>
+        <v>1.058714022834133</v>
       </c>
       <c r="M11">
-        <v>1.042468483242212</v>
+        <v>1.066199250275334</v>
       </c>
       <c r="N11">
-        <v>1.01412919980205</v>
+        <v>1.020417605805126</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.001404295418085</v>
+        <v>1.043056252933451</v>
       </c>
       <c r="D12">
-        <v>1.023213490042381</v>
+        <v>1.050113354069208</v>
       </c>
       <c r="E12">
-        <v>1.016001944342843</v>
+        <v>1.054996615372269</v>
       </c>
       <c r="F12">
-        <v>1.027005448919101</v>
+        <v>1.062513893762311</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046642332398478</v>
+        <v>1.044578713927997</v>
       </c>
       <c r="J12">
-        <v>1.031149341620579</v>
+        <v>1.049651480575929</v>
       </c>
       <c r="K12">
-        <v>1.037909071684452</v>
+        <v>1.053673195811557</v>
       </c>
       <c r="L12">
-        <v>1.030828862189415</v>
+        <v>1.058538742774472</v>
       </c>
       <c r="M12">
-        <v>1.041632932458038</v>
+        <v>1.066029102866137</v>
       </c>
       <c r="N12">
-        <v>1.013879505753409</v>
+        <v>1.020369763505734</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.001665301633577</v>
+        <v>1.043105024715441</v>
       </c>
       <c r="D13">
-        <v>1.023406793447029</v>
+        <v>1.050151220226885</v>
       </c>
       <c r="E13">
-        <v>1.016228293111457</v>
+        <v>1.055043819202627</v>
       </c>
       <c r="F13">
-        <v>1.027231467473658</v>
+        <v>1.062559916087775</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046726372694695</v>
+        <v>1.044591741868383</v>
       </c>
       <c r="J13">
-        <v>1.03130698585225</v>
+        <v>1.049681842836174</v>
       </c>
       <c r="K13">
-        <v>1.03805631133699</v>
+        <v>1.053701432778677</v>
       </c>
       <c r="L13">
-        <v>1.031008038734566</v>
+        <v>1.05857633547616</v>
       </c>
       <c r="M13">
-        <v>1.041812565257554</v>
+        <v>1.066065597187926</v>
       </c>
       <c r="N13">
-        <v>1.01393320044794</v>
+        <v>1.020380026790766</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.00251811346653</v>
+        <v>1.043264844941314</v>
       </c>
       <c r="D14">
-        <v>1.024038575834877</v>
+        <v>1.050275307434461</v>
       </c>
       <c r="E14">
-        <v>1.016968252455423</v>
+        <v>1.055198527525492</v>
       </c>
       <c r="F14">
-        <v>1.027970258234723</v>
+        <v>1.062710743397969</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047000748246615</v>
+        <v>1.044634401079854</v>
       </c>
       <c r="J14">
-        <v>1.031822014812225</v>
+        <v>1.049781322215699</v>
       </c>
       <c r="K14">
-        <v>1.03853735905303</v>
+        <v>1.053793947404556</v>
       </c>
       <c r="L14">
-        <v>1.03159367206696</v>
+        <v>1.058699531667558</v>
       </c>
       <c r="M14">
-        <v>1.042399598004413</v>
+        <v>1.066185184543247</v>
       </c>
       <c r="N14">
-        <v>1.014108620440685</v>
+        <v>1.020413651574334</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.00304173958531</v>
+        <v>1.043363327577702</v>
       </c>
       <c r="D15">
-        <v>1.024426628387108</v>
+        <v>1.0503517738255</v>
       </c>
       <c r="E15">
-        <v>1.017422881989661</v>
+        <v>1.055293880139983</v>
       </c>
       <c r="F15">
-        <v>1.028424101741002</v>
+        <v>1.062803697350053</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047169047368525</v>
+        <v>1.044660663537532</v>
       </c>
       <c r="J15">
-        <v>1.032138197288511</v>
+        <v>1.049842611036856</v>
       </c>
       <c r="K15">
-        <v>1.038832688120648</v>
+        <v>1.053850944189261</v>
       </c>
       <c r="L15">
-        <v>1.031953396176556</v>
+        <v>1.05877545289014</v>
       </c>
       <c r="M15">
-        <v>1.042760111514273</v>
+        <v>1.066258874656125</v>
       </c>
       <c r="N15">
-        <v>1.014216310984275</v>
+        <v>1.020434366126012</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.006062226545596</v>
+        <v>1.043936723304899</v>
       </c>
       <c r="D16">
-        <v>1.02666711863213</v>
+        <v>1.050797025935587</v>
       </c>
       <c r="E16">
-        <v>1.020049786785342</v>
+        <v>1.055849356525673</v>
       </c>
       <c r="F16">
-        <v>1.03104543411765</v>
+        <v>1.063345098866675</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048137291825904</v>
+        <v>1.044813196870015</v>
       </c>
       <c r="J16">
-        <v>1.033961347592125</v>
+        <v>1.050199281073705</v>
       </c>
       <c r="K16">
-        <v>1.040535708617338</v>
+        <v>1.054182620144855</v>
       </c>
       <c r="L16">
-        <v>1.034030589188602</v>
+        <v>1.059217590245348</v>
       </c>
       <c r="M16">
-        <v>1.044840799236773</v>
+        <v>1.066687910172108</v>
       </c>
       <c r="N16">
-        <v>1.014837236396613</v>
+        <v>1.020554890896931</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.007933471234744</v>
+        <v>1.044296560637186</v>
       </c>
       <c r="D17">
-        <v>1.028056881549732</v>
+        <v>1.051076482265631</v>
       </c>
       <c r="E17">
-        <v>1.02168102202757</v>
+        <v>1.056198216225834</v>
       </c>
       <c r="F17">
-        <v>1.032672306727311</v>
+        <v>1.063685029727033</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048734841254567</v>
+        <v>1.044908589822852</v>
       </c>
       <c r="J17">
-        <v>1.035090154999743</v>
+        <v>1.050422959380725</v>
       </c>
       <c r="K17">
-        <v>1.041590227793559</v>
+        <v>1.054390609222799</v>
       </c>
       <c r="L17">
-        <v>1.035319291539025</v>
+        <v>1.059495144276413</v>
       </c>
       <c r="M17">
-        <v>1.046130737584049</v>
+        <v>1.066957143786372</v>
       </c>
       <c r="N17">
-        <v>1.015221651004602</v>
+        <v>1.020630454802242</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.009016712400473</v>
+        <v>1.044506505450858</v>
       </c>
       <c r="D18">
-        <v>1.028862003231225</v>
+        <v>1.051239542123159</v>
       </c>
       <c r="E18">
-        <v>1.022626678647048</v>
+        <v>1.056401852479511</v>
       </c>
       <c r="F18">
-        <v>1.033615110464264</v>
+        <v>1.063883421893159</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049079915068853</v>
+        <v>1.044964127237788</v>
       </c>
       <c r="J18">
-        <v>1.035743354317727</v>
+        <v>1.05055340830455</v>
       </c>
       <c r="K18">
-        <v>1.042200468144256</v>
+        <v>1.054511902872767</v>
       </c>
       <c r="L18">
-        <v>1.036065950619448</v>
+        <v>1.059657113157281</v>
       </c>
       <c r="M18">
-        <v>1.046877777851754</v>
+        <v>1.067114222767601</v>
       </c>
       <c r="N18">
-        <v>1.015444084239023</v>
+        <v>1.020674516085437</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.009384694807661</v>
+        <v>1.044578100974349</v>
       </c>
       <c r="D19">
-        <v>1.029135607599951</v>
+        <v>1.051295151064177</v>
       </c>
       <c r="E19">
-        <v>1.02294815058931</v>
+        <v>1.056471312961437</v>
       </c>
       <c r="F19">
-        <v>1.033935557757538</v>
+        <v>1.063951088163502</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049196994476249</v>
+        <v>1.044983046457461</v>
       </c>
       <c r="J19">
-        <v>1.035965205025269</v>
+        <v>1.050597884788236</v>
       </c>
       <c r="K19">
-        <v>1.0424077329584</v>
+        <v>1.054553256963125</v>
       </c>
       <c r="L19">
-        <v>1.036319701987251</v>
+        <v>1.059712353262564</v>
       </c>
       <c r="M19">
-        <v>1.047131602009342</v>
+        <v>1.067167789312515</v>
       </c>
       <c r="N19">
-        <v>1.015519628397947</v>
+        <v>1.02068953748006</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.007733559878959</v>
+        <v>1.044257947511748</v>
       </c>
       <c r="D20">
-        <v>1.027908345311112</v>
+        <v>1.051046493266476</v>
       </c>
       <c r="E20">
-        <v>1.02150661074372</v>
+        <v>1.056160771117432</v>
       </c>
       <c r="F20">
-        <v>1.03249839548871</v>
+        <v>1.063648546327282</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048671089904221</v>
+        <v>1.044898365781781</v>
       </c>
       <c r="J20">
-        <v>1.034969586728542</v>
+        <v>1.050398962757392</v>
       </c>
       <c r="K20">
-        <v>1.041477591192248</v>
+        <v>1.054368296320001</v>
       </c>
       <c r="L20">
-        <v>1.035181547828554</v>
+        <v>1.059465357452743</v>
       </c>
       <c r="M20">
-        <v>1.045992896510708</v>
+        <v>1.066928253465239</v>
       </c>
       <c r="N20">
-        <v>1.01518059291056</v>
+        <v>1.020622348941373</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.002267361968012</v>
+        <v>1.043217779341204</v>
       </c>
       <c r="D21">
-        <v>1.023852784407457</v>
+        <v>1.050238764307283</v>
       </c>
       <c r="E21">
-        <v>1.01675062121875</v>
+        <v>1.055152963171374</v>
       </c>
       <c r="F21">
-        <v>1.027752984897544</v>
+        <v>1.062666323455831</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046920108691628</v>
+        <v>1.044621843439583</v>
       </c>
       <c r="J21">
-        <v>1.031670590637448</v>
+        <v>1.049752028788458</v>
       </c>
       <c r="K21">
-        <v>1.038395924028104</v>
+        <v>1.053766705094825</v>
       </c>
       <c r="L21">
-        <v>1.031421448345367</v>
+        <v>1.058663250127695</v>
       </c>
       <c r="M21">
-        <v>1.042226977390726</v>
+        <v>1.066149967296206</v>
       </c>
       <c r="N21">
-        <v>1.01405704542236</v>
+        <v>1.020403750493546</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9987516640286659</v>
+        <v>1.042564312630186</v>
       </c>
       <c r="D22">
-        <v>1.021250421899224</v>
+        <v>1.049731443098704</v>
       </c>
       <c r="E22">
-        <v>1.013704668436569</v>
+        <v>1.054520697559465</v>
       </c>
       <c r="F22">
-        <v>1.024710811668669</v>
+        <v>1.062049819264731</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045786502384041</v>
+        <v>1.044447052806166</v>
       </c>
       <c r="J22">
-        <v>1.029546745639019</v>
+        <v>1.049345113000349</v>
       </c>
       <c r="K22">
-        <v>1.036412339858017</v>
+        <v>1.053388262177402</v>
       </c>
       <c r="L22">
-        <v>1.029009435774861</v>
+        <v>1.058159630182508</v>
       </c>
       <c r="M22">
-        <v>1.039808138409695</v>
+        <v>1.065660993430693</v>
       </c>
       <c r="N22">
-        <v>1.013333634026115</v>
+        <v>1.020266186938042</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.000623120905588</v>
+        <v>1.042910677245587</v>
       </c>
       <c r="D23">
-        <v>1.022635102562444</v>
+        <v>1.050000332935371</v>
       </c>
       <c r="E23">
-        <v>1.015324828006462</v>
+        <v>1.054855741862123</v>
       </c>
       <c r="F23">
-        <v>1.026329244707051</v>
+        <v>1.062376538948953</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046390621413969</v>
+        <v>1.044539800592984</v>
       </c>
       <c r="J23">
-        <v>1.030677474675764</v>
+        <v>1.049560841839384</v>
       </c>
       <c r="K23">
-        <v>1.037468357651598</v>
+        <v>1.053588900401874</v>
       </c>
       <c r="L23">
-        <v>1.030292762988505</v>
+        <v>1.058426542148145</v>
       </c>
       <c r="M23">
-        <v>1.041095390098178</v>
+        <v>1.065920172639709</v>
       </c>
       <c r="N23">
-        <v>1.013718782782919</v>
+        <v>1.020339123409991</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.007823916580836</v>
+        <v>1.044275394942597</v>
       </c>
       <c r="D24">
-        <v>1.027975479421376</v>
+        <v>1.051060043826194</v>
       </c>
       <c r="E24">
-        <v>1.02158543763265</v>
+        <v>1.056177690479745</v>
       </c>
       <c r="F24">
-        <v>1.032576997380203</v>
+        <v>1.063665031246222</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048699907093044</v>
+        <v>1.044902985906265</v>
       </c>
       <c r="J24">
-        <v>1.035024082428659</v>
+        <v>1.050409805856896</v>
       </c>
       <c r="K24">
-        <v>1.041528501765055</v>
+        <v>1.054378378631075</v>
       </c>
       <c r="L24">
-        <v>1.035243803765471</v>
+        <v>1.059478816600568</v>
       </c>
       <c r="M24">
-        <v>1.046055197490474</v>
+        <v>1.066941307635673</v>
       </c>
       <c r="N24">
-        <v>1.015199150816362</v>
+        <v>1.020626011673871</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.015859491437393</v>
+        <v>1.045861336633009</v>
       </c>
       <c r="D25">
-        <v>1.033958059763897</v>
+        <v>1.052292037758077</v>
       </c>
       <c r="E25">
-        <v>1.028623844545641</v>
+        <v>1.057717706505466</v>
       </c>
       <c r="F25">
-        <v>1.039588431223549</v>
+        <v>1.0651648091432</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051244350551299</v>
+        <v>1.045320372970777</v>
       </c>
       <c r="J25">
-        <v>1.039864659737033</v>
+        <v>1.051394238235678</v>
       </c>
       <c r="K25">
-        <v>1.046051137704414</v>
+        <v>1.055293623559916</v>
       </c>
       <c r="L25">
-        <v>1.040793487412025</v>
+        <v>1.060702911154233</v>
       </c>
       <c r="M25">
-        <v>1.051601770310453</v>
+        <v>1.068127825412059</v>
       </c>
       <c r="N25">
-        <v>1.016847223529693</v>
+        <v>1.020958384151427</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_106/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_106/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.047128063602184</v>
+        <v>1.022033086775639</v>
       </c>
       <c r="D2">
-        <v>1.053276440205262</v>
+        <v>1.038570576856165</v>
       </c>
       <c r="E2">
-        <v>1.058950772824788</v>
+        <v>1.03407070179287</v>
       </c>
       <c r="F2">
-        <v>1.066364642304763</v>
+        <v>1.04500449139632</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045649976774784</v>
+        <v>1.053171663795624</v>
       </c>
       <c r="J2">
-        <v>1.052178781974173</v>
+        <v>1.043574186491485</v>
       </c>
       <c r="K2">
-        <v>1.056022855291684</v>
+        <v>1.049517494570751</v>
       </c>
       <c r="L2">
-        <v>1.06168160668493</v>
+        <v>1.045074938484449</v>
       </c>
       <c r="M2">
-        <v>1.069075388704568</v>
+        <v>1.055870523303903</v>
       </c>
       <c r="N2">
-        <v>1.021223028434477</v>
+        <v>1.018109610254172</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.048048835748804</v>
+        <v>1.026389418561335</v>
       </c>
       <c r="D3">
-        <v>1.053992202943841</v>
+        <v>1.041833678788015</v>
       </c>
       <c r="E3">
-        <v>1.059848817301546</v>
+        <v>1.03793599167405</v>
       </c>
       <c r="F3">
-        <v>1.067237896132549</v>
+        <v>1.048842224359607</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045887372272664</v>
+        <v>1.054515013015353</v>
       </c>
       <c r="J3">
-        <v>1.052748042992124</v>
+        <v>1.046185649457146</v>
       </c>
       <c r="K3">
-        <v>1.056551879775694</v>
+        <v>1.051957871751811</v>
       </c>
       <c r="L3">
-        <v>1.062393572418461</v>
+        <v>1.048105436318375</v>
       </c>
       <c r="M3">
-        <v>1.069764076728424</v>
+        <v>1.058886092563139</v>
       </c>
       <c r="N3">
-        <v>1.021414912316752</v>
+        <v>1.018997886957089</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.048645100884352</v>
+        <v>1.029153000665185</v>
       </c>
       <c r="D4">
-        <v>1.054455803149088</v>
+        <v>1.043907266778888</v>
       </c>
       <c r="E4">
-        <v>1.060431165663696</v>
+        <v>1.040397841613283</v>
       </c>
       <c r="F4">
-        <v>1.067803897793608</v>
+        <v>1.051283894180612</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046040088301862</v>
+        <v>1.055359283426116</v>
       </c>
       <c r="J4">
-        <v>1.053116207775297</v>
+        <v>1.047839266519284</v>
       </c>
       <c r="K4">
-        <v>1.056893973834551</v>
+        <v>1.053503147820071</v>
       </c>
       <c r="L4">
-        <v>1.062854876975676</v>
+        <v>1.05003197384356</v>
       </c>
       <c r="M4">
-        <v>1.070210007805282</v>
+        <v>1.060800392940271</v>
       </c>
       <c r="N4">
-        <v>1.021538946011491</v>
+        <v>1.019560131411598</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.048895880642617</v>
+        <v>1.030302024860279</v>
       </c>
       <c r="D5">
-        <v>1.05465080784866</v>
+        <v>1.044770211453516</v>
       </c>
       <c r="E5">
-        <v>1.060676283391242</v>
+        <v>1.041423717685252</v>
       </c>
       <c r="F5">
-        <v>1.068042070249368</v>
+        <v>1.052300731678883</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046104075314892</v>
+        <v>1.05570837337497</v>
       </c>
       <c r="J5">
-        <v>1.053270938862513</v>
+        <v>1.048526033628481</v>
       </c>
       <c r="K5">
-        <v>1.057037736386535</v>
+        <v>1.054144910128494</v>
       </c>
       <c r="L5">
-        <v>1.063048955322093</v>
+        <v>1.050833907435484</v>
       </c>
       <c r="M5">
-        <v>1.070397548650296</v>
+        <v>1.061596573804952</v>
       </c>
       <c r="N5">
-        <v>1.021591058705289</v>
+        <v>1.019793580176387</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.048937994077517</v>
+        <v>1.03049421380273</v>
       </c>
       <c r="D6">
-        <v>1.054683556237462</v>
+        <v>1.044914595776815</v>
       </c>
       <c r="E6">
-        <v>1.060717457191908</v>
+        <v>1.041595442803769</v>
       </c>
       <c r="F6">
-        <v>1.068082073621126</v>
+        <v>1.052470906851547</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046114806402094</v>
+        <v>1.055766648401152</v>
       </c>
       <c r="J6">
-        <v>1.053296916200591</v>
+        <v>1.048640858435885</v>
       </c>
       <c r="K6">
-        <v>1.05706187156582</v>
+        <v>1.054252209526781</v>
       </c>
       <c r="L6">
-        <v>1.063081550447485</v>
+        <v>1.050968094621558</v>
       </c>
       <c r="M6">
-        <v>1.070429041732953</v>
+        <v>1.061729759660624</v>
       </c>
       <c r="N6">
-        <v>1.021599806821456</v>
+        <v>1.019832608373036</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.048648451385412</v>
+        <v>1.02916840365026</v>
       </c>
       <c r="D7">
-        <v>1.054458408392165</v>
+        <v>1.043918831681993</v>
       </c>
       <c r="E7">
-        <v>1.060434439767993</v>
+        <v>1.04041158471693</v>
       </c>
       <c r="F7">
-        <v>1.067807079382129</v>
+        <v>1.051297518681039</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046040944144252</v>
+        <v>1.055363970759974</v>
       </c>
       <c r="J7">
-        <v>1.053118275479322</v>
+        <v>1.047848475875377</v>
       </c>
       <c r="K7">
-        <v>1.056895895009521</v>
+        <v>1.053511753721894</v>
       </c>
       <c r="L7">
-        <v>1.062857469688401</v>
+        <v>1.05004272036004</v>
       </c>
       <c r="M7">
-        <v>1.070212513456259</v>
+        <v>1.060811064967197</v>
       </c>
       <c r="N7">
-        <v>1.021539642466479</v>
+        <v>1.019563262129698</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.047439146075475</v>
+        <v>1.023517043818846</v>
       </c>
       <c r="D8">
-        <v>1.053518240711272</v>
+        <v>1.039681363306173</v>
       </c>
       <c r="E8">
-        <v>1.059254010631443</v>
+        <v>1.035385313475856</v>
       </c>
       <c r="F8">
-        <v>1.066659565260305</v>
+        <v>1.046310281149118</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045730390590567</v>
+        <v>1.053630908150742</v>
       </c>
       <c r="J8">
-        <v>1.052371204101516</v>
+        <v>1.044464384911776</v>
       </c>
       <c r="K8">
-        <v>1.056201686525585</v>
+        <v>1.050349369679371</v>
       </c>
       <c r="L8">
-        <v>1.061922090661009</v>
+        <v>1.046106386878962</v>
       </c>
       <c r="M8">
-        <v>1.069308070328678</v>
+        <v>1.056897465663066</v>
       </c>
       <c r="N8">
-        <v>1.02128790273958</v>
+        <v>1.018412451869361</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.045311801577685</v>
+        <v>1.013114447970842</v>
       </c>
       <c r="D9">
-        <v>1.051865086485061</v>
+        <v>1.031911637010439</v>
       </c>
       <c r="E9">
-        <v>1.057183616043261</v>
+        <v>1.02621308777857</v>
       </c>
       <c r="F9">
-        <v>1.064644830641512</v>
+        <v>1.037188479606397</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045176329768417</v>
+        <v>1.050379386682091</v>
       </c>
       <c r="J9">
-        <v>1.051053397628937</v>
+        <v>1.038212451688627</v>
       </c>
       <c r="K9">
-        <v>1.05497676428197</v>
+        <v>1.044507349910025</v>
       </c>
       <c r="L9">
-        <v>1.06027860412098</v>
+        <v>1.038894724716621</v>
       </c>
       <c r="M9">
-        <v>1.067716712020457</v>
+        <v>1.049705696886183</v>
       </c>
       <c r="N9">
-        <v>1.020843343608661</v>
+        <v>1.01628477857096</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.043896066068527</v>
+        <v>1.005849629495584</v>
       </c>
       <c r="D10">
-        <v>1.050765452523736</v>
+        <v>1.026509307957411</v>
       </c>
       <c r="E10">
-        <v>1.055809952666697</v>
+        <v>1.019864643933388</v>
       </c>
       <c r="F10">
-        <v>1.063306699174576</v>
+        <v>1.030860742273913</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044802402533229</v>
+        <v>1.048069289155661</v>
       </c>
       <c r="J10">
-        <v>1.050174000746207</v>
+        <v>1.033833067223985</v>
       </c>
       <c r="K10">
-        <v>1.054159112309153</v>
+        <v>1.040415874743665</v>
       </c>
       <c r="L10">
-        <v>1.059186234325634</v>
+        <v>1.033884265570944</v>
       </c>
       <c r="M10">
-        <v>1.066657489567466</v>
+        <v>1.044694289625403</v>
       </c>
       <c r="N10">
-        <v>1.020546349582252</v>
+        <v>1.014793548897441</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.043283642937219</v>
+        <v>1.002618171931451</v>
       </c>
       <c r="D11">
-        <v>1.050289902889894</v>
+        <v>1.0241127197393</v>
       </c>
       <c r="E11">
-        <v>1.055216726896504</v>
+        <v>1.017055109159973</v>
       </c>
       <c r="F11">
-        <v>1.062728485342939</v>
+        <v>1.028056968785438</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044639415406012</v>
+        <v>1.047032918038419</v>
       </c>
       <c r="J11">
-        <v>1.049793021459708</v>
+        <v>1.031882436059139</v>
       </c>
       <c r="K11">
-        <v>1.053804827418134</v>
+        <v>1.038593794824167</v>
       </c>
       <c r="L11">
-        <v>1.058714022834133</v>
+        <v>1.031662402335278</v>
       </c>
       <c r="M11">
-        <v>1.066199250275334</v>
+        <v>1.042468483242212</v>
       </c>
       <c r="N11">
-        <v>1.020417605805126</v>
+        <v>1.01412919980205</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.043056252933451</v>
+        <v>1.001404295418086</v>
       </c>
       <c r="D12">
-        <v>1.050113354069208</v>
+        <v>1.023213490042382</v>
       </c>
       <c r="E12">
-        <v>1.054996615372269</v>
+        <v>1.016001944342844</v>
       </c>
       <c r="F12">
-        <v>1.062513893762311</v>
+        <v>1.027005448919101</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044578713927997</v>
+        <v>1.046642332398478</v>
       </c>
       <c r="J12">
-        <v>1.049651480575929</v>
+        <v>1.031149341620579</v>
       </c>
       <c r="K12">
-        <v>1.053673195811557</v>
+        <v>1.037909071684452</v>
       </c>
       <c r="L12">
-        <v>1.058538742774472</v>
+        <v>1.030828862189416</v>
       </c>
       <c r="M12">
-        <v>1.066029102866137</v>
+        <v>1.041632932458038</v>
       </c>
       <c r="N12">
-        <v>1.020369763505734</v>
+        <v>1.013879505753409</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.043105024715441</v>
+        <v>1.001665301633577</v>
       </c>
       <c r="D13">
-        <v>1.050151220226885</v>
+        <v>1.023406793447029</v>
       </c>
       <c r="E13">
-        <v>1.055043819202627</v>
+        <v>1.016228293111458</v>
       </c>
       <c r="F13">
-        <v>1.062559916087775</v>
+        <v>1.027231467473659</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044591741868383</v>
+        <v>1.046726372694695</v>
       </c>
       <c r="J13">
-        <v>1.049681842836174</v>
+        <v>1.03130698585225</v>
       </c>
       <c r="K13">
-        <v>1.053701432778677</v>
+        <v>1.03805631133699</v>
       </c>
       <c r="L13">
-        <v>1.05857633547616</v>
+        <v>1.031008038734567</v>
       </c>
       <c r="M13">
-        <v>1.066065597187926</v>
+        <v>1.041812565257554</v>
       </c>
       <c r="N13">
-        <v>1.020380026790766</v>
+        <v>1.01393320044794</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.043264844941314</v>
+        <v>1.002518113466531</v>
       </c>
       <c r="D14">
-        <v>1.050275307434461</v>
+        <v>1.024038575834878</v>
       </c>
       <c r="E14">
-        <v>1.055198527525492</v>
+        <v>1.016968252455423</v>
       </c>
       <c r="F14">
-        <v>1.062710743397969</v>
+        <v>1.027970258234723</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044634401079854</v>
+        <v>1.047000748246615</v>
       </c>
       <c r="J14">
-        <v>1.049781322215699</v>
+        <v>1.031822014812225</v>
       </c>
       <c r="K14">
-        <v>1.053793947404556</v>
+        <v>1.03853735905303</v>
       </c>
       <c r="L14">
-        <v>1.058699531667558</v>
+        <v>1.03159367206696</v>
       </c>
       <c r="M14">
-        <v>1.066185184543247</v>
+        <v>1.042399598004413</v>
       </c>
       <c r="N14">
-        <v>1.020413651574334</v>
+        <v>1.014108620440685</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.043363327577702</v>
+        <v>1.00304173958531</v>
       </c>
       <c r="D15">
-        <v>1.0503517738255</v>
+        <v>1.024426628387108</v>
       </c>
       <c r="E15">
-        <v>1.055293880139983</v>
+        <v>1.017422881989661</v>
       </c>
       <c r="F15">
-        <v>1.062803697350053</v>
+        <v>1.028424101741001</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044660663537532</v>
+        <v>1.047169047368525</v>
       </c>
       <c r="J15">
-        <v>1.049842611036856</v>
+        <v>1.032138197288511</v>
       </c>
       <c r="K15">
-        <v>1.053850944189261</v>
+        <v>1.038832688120648</v>
       </c>
       <c r="L15">
-        <v>1.05877545289014</v>
+        <v>1.031953396176556</v>
       </c>
       <c r="M15">
-        <v>1.066258874656125</v>
+        <v>1.042760111514273</v>
       </c>
       <c r="N15">
-        <v>1.020434366126012</v>
+        <v>1.014216310984275</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.043936723304899</v>
+        <v>1.006062226545597</v>
       </c>
       <c r="D16">
-        <v>1.050797025935587</v>
+        <v>1.026667118632131</v>
       </c>
       <c r="E16">
-        <v>1.055849356525673</v>
+        <v>1.020049786785343</v>
       </c>
       <c r="F16">
-        <v>1.063345098866675</v>
+        <v>1.031045434117652</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044813196870015</v>
+        <v>1.048137291825905</v>
       </c>
       <c r="J16">
-        <v>1.050199281073705</v>
+        <v>1.033961347592126</v>
       </c>
       <c r="K16">
-        <v>1.054182620144855</v>
+        <v>1.040535708617339</v>
       </c>
       <c r="L16">
-        <v>1.059217590245348</v>
+        <v>1.034030589188603</v>
       </c>
       <c r="M16">
-        <v>1.066687910172108</v>
+        <v>1.044840799236775</v>
       </c>
       <c r="N16">
-        <v>1.020554890896931</v>
+        <v>1.014837236396613</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.044296560637186</v>
+        <v>1.007933471234745</v>
       </c>
       <c r="D17">
-        <v>1.051076482265631</v>
+        <v>1.028056881549733</v>
       </c>
       <c r="E17">
-        <v>1.056198216225834</v>
+        <v>1.021681022027571</v>
       </c>
       <c r="F17">
-        <v>1.063685029727033</v>
+        <v>1.032672306727311</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044908589822852</v>
+        <v>1.048734841254568</v>
       </c>
       <c r="J17">
-        <v>1.050422959380725</v>
+        <v>1.035090154999744</v>
       </c>
       <c r="K17">
-        <v>1.054390609222799</v>
+        <v>1.04159022779356</v>
       </c>
       <c r="L17">
-        <v>1.059495144276413</v>
+        <v>1.035319291539026</v>
       </c>
       <c r="M17">
-        <v>1.066957143786372</v>
+        <v>1.04613073758405</v>
       </c>
       <c r="N17">
-        <v>1.020630454802242</v>
+        <v>1.015221651004602</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.044506505450858</v>
+        <v>1.009016712400475</v>
       </c>
       <c r="D18">
-        <v>1.051239542123159</v>
+        <v>1.028862003231226</v>
       </c>
       <c r="E18">
-        <v>1.056401852479511</v>
+        <v>1.022626678647049</v>
       </c>
       <c r="F18">
-        <v>1.063883421893159</v>
+        <v>1.033615110464265</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044964127237788</v>
+        <v>1.049079915068854</v>
       </c>
       <c r="J18">
-        <v>1.05055340830455</v>
+        <v>1.035743354317729</v>
       </c>
       <c r="K18">
-        <v>1.054511902872767</v>
+        <v>1.042200468144257</v>
       </c>
       <c r="L18">
-        <v>1.059657113157281</v>
+        <v>1.036065950619449</v>
       </c>
       <c r="M18">
-        <v>1.067114222767601</v>
+        <v>1.046877777851755</v>
       </c>
       <c r="N18">
-        <v>1.020674516085437</v>
+        <v>1.015444084239024</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.044578100974349</v>
+        <v>1.009384694807661</v>
       </c>
       <c r="D19">
-        <v>1.051295151064177</v>
+        <v>1.029135607599951</v>
       </c>
       <c r="E19">
-        <v>1.056471312961437</v>
+        <v>1.02294815058931</v>
       </c>
       <c r="F19">
-        <v>1.063951088163502</v>
+        <v>1.033935557757538</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044983046457461</v>
+        <v>1.049196994476249</v>
       </c>
       <c r="J19">
-        <v>1.050597884788236</v>
+        <v>1.035965205025269</v>
       </c>
       <c r="K19">
-        <v>1.054553256963125</v>
+        <v>1.0424077329584</v>
       </c>
       <c r="L19">
-        <v>1.059712353262564</v>
+        <v>1.036319701987251</v>
       </c>
       <c r="M19">
-        <v>1.067167789312515</v>
+        <v>1.047131602009342</v>
       </c>
       <c r="N19">
-        <v>1.02068953748006</v>
+        <v>1.015519628397946</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.044257947511748</v>
+        <v>1.007733559878959</v>
       </c>
       <c r="D20">
-        <v>1.051046493266476</v>
+        <v>1.027908345311112</v>
       </c>
       <c r="E20">
-        <v>1.056160771117432</v>
+        <v>1.02150661074372</v>
       </c>
       <c r="F20">
-        <v>1.063648546327282</v>
+        <v>1.03249839548871</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044898365781781</v>
+        <v>1.048671089904221</v>
       </c>
       <c r="J20">
-        <v>1.050398962757392</v>
+        <v>1.034969586728542</v>
       </c>
       <c r="K20">
-        <v>1.054368296320001</v>
+        <v>1.041477591192248</v>
       </c>
       <c r="L20">
-        <v>1.059465357452743</v>
+        <v>1.035181547828554</v>
       </c>
       <c r="M20">
-        <v>1.066928253465239</v>
+        <v>1.045992896510709</v>
       </c>
       <c r="N20">
-        <v>1.020622348941373</v>
+        <v>1.01518059291056</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.043217779341204</v>
+        <v>1.002267361968011</v>
       </c>
       <c r="D21">
-        <v>1.050238764307283</v>
+        <v>1.023852784407457</v>
       </c>
       <c r="E21">
-        <v>1.055152963171374</v>
+        <v>1.016750621218749</v>
       </c>
       <c r="F21">
-        <v>1.062666323455831</v>
+        <v>1.027752984897544</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044621843439583</v>
+        <v>1.046920108691628</v>
       </c>
       <c r="J21">
-        <v>1.049752028788458</v>
+        <v>1.031670590637448</v>
       </c>
       <c r="K21">
-        <v>1.053766705094825</v>
+        <v>1.038395924028103</v>
       </c>
       <c r="L21">
-        <v>1.058663250127695</v>
+        <v>1.031421448345366</v>
       </c>
       <c r="M21">
-        <v>1.066149967296206</v>
+        <v>1.042226977390725</v>
       </c>
       <c r="N21">
-        <v>1.020403750493546</v>
+        <v>1.014057045422359</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.042564312630186</v>
+        <v>0.9987516640286652</v>
       </c>
       <c r="D22">
-        <v>1.049731443098704</v>
+        <v>1.021250421899223</v>
       </c>
       <c r="E22">
-        <v>1.054520697559465</v>
+        <v>1.013704668436568</v>
       </c>
       <c r="F22">
-        <v>1.062049819264731</v>
+        <v>1.024710811668668</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044447052806166</v>
+        <v>1.04578650238404</v>
       </c>
       <c r="J22">
-        <v>1.049345113000349</v>
+        <v>1.029546745639018</v>
       </c>
       <c r="K22">
-        <v>1.053388262177402</v>
+        <v>1.036412339858017</v>
       </c>
       <c r="L22">
-        <v>1.058159630182508</v>
+        <v>1.02900943577486</v>
       </c>
       <c r="M22">
-        <v>1.065660993430693</v>
+        <v>1.039808138409695</v>
       </c>
       <c r="N22">
-        <v>1.020266186938042</v>
+        <v>1.013333634026115</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.042910677245587</v>
+        <v>1.000623120905588</v>
       </c>
       <c r="D23">
-        <v>1.050000332935371</v>
+        <v>1.022635102562444</v>
       </c>
       <c r="E23">
-        <v>1.054855741862123</v>
+        <v>1.015324828006463</v>
       </c>
       <c r="F23">
-        <v>1.062376538948953</v>
+        <v>1.026329244707051</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044539800592984</v>
+        <v>1.046390621413969</v>
       </c>
       <c r="J23">
-        <v>1.049560841839384</v>
+        <v>1.030677474675764</v>
       </c>
       <c r="K23">
-        <v>1.053588900401874</v>
+        <v>1.037468357651598</v>
       </c>
       <c r="L23">
-        <v>1.058426542148145</v>
+        <v>1.030292762988505</v>
       </c>
       <c r="M23">
-        <v>1.065920172639709</v>
+        <v>1.041095390098179</v>
       </c>
       <c r="N23">
-        <v>1.020339123409991</v>
+        <v>1.013718782782919</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.044275394942597</v>
+        <v>1.007823916580835</v>
       </c>
       <c r="D24">
-        <v>1.051060043826194</v>
+        <v>1.027975479421376</v>
       </c>
       <c r="E24">
-        <v>1.056177690479745</v>
+        <v>1.02158543763265</v>
       </c>
       <c r="F24">
-        <v>1.063665031246222</v>
+        <v>1.032576997380202</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044902985906265</v>
+        <v>1.048699907093044</v>
       </c>
       <c r="J24">
-        <v>1.050409805856896</v>
+        <v>1.035024082428659</v>
       </c>
       <c r="K24">
-        <v>1.054378378631075</v>
+        <v>1.041528501765054</v>
       </c>
       <c r="L24">
-        <v>1.059478816600568</v>
+        <v>1.035243803765471</v>
       </c>
       <c r="M24">
-        <v>1.066941307635673</v>
+        <v>1.046055197490473</v>
       </c>
       <c r="N24">
-        <v>1.020626011673871</v>
+        <v>1.015199150816362</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.045861336633009</v>
+        <v>1.015859491437393</v>
       </c>
       <c r="D25">
-        <v>1.052292037758077</v>
+        <v>1.033958059763898</v>
       </c>
       <c r="E25">
-        <v>1.057717706505466</v>
+        <v>1.028623844545641</v>
       </c>
       <c r="F25">
-        <v>1.0651648091432</v>
+        <v>1.039588431223549</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045320372970777</v>
+        <v>1.0512443505513</v>
       </c>
       <c r="J25">
-        <v>1.051394238235678</v>
+        <v>1.039864659737034</v>
       </c>
       <c r="K25">
-        <v>1.055293623559916</v>
+        <v>1.046051137704414</v>
       </c>
       <c r="L25">
-        <v>1.060702911154233</v>
+        <v>1.040793487412025</v>
       </c>
       <c r="M25">
-        <v>1.068127825412059</v>
+        <v>1.051601770310454</v>
       </c>
       <c r="N25">
-        <v>1.020958384151427</v>
+        <v>1.016847223529693</v>
       </c>
     </row>
   </sheetData>
